--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_100/Tests_Estadisticos/dm_comparaciones_DeepAR_No_lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_100/Tests_Estadisticos/dm_comparaciones_DeepAR_No_lineal_Estacionario_SETAR.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>N_Calib_1</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>Sí</t>
   </si>
 </sst>
 </file>
@@ -441,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>1.315834234914356</v>
+        <v>1.301593443182684</v>
       </c>
       <c r="D2">
-        <v>0.1884093158445737</v>
+        <v>0.20652091539819</v>
       </c>
       <c r="E2">
         <v>0.6282245520048336</v>
@@ -467,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>-0.1214221592729952</v>
+        <v>-0.1423096387251648</v>
       </c>
       <c r="D3">
-        <v>0.9033711956280222</v>
+        <v>0.8881306875568387</v>
       </c>
       <c r="E3">
         <v>0.6282245520048336</v>
@@ -493,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>-0.2000786782172306</v>
+        <v>-0.2775536872456714</v>
       </c>
       <c r="D4">
-        <v>0.8414432783672368</v>
+        <v>0.7839464926165656</v>
       </c>
       <c r="E4">
         <v>0.6282245520048336</v>
@@ -519,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>1.785171982828834</v>
+        <v>1.866660502619637</v>
       </c>
       <c r="D5">
-        <v>0.0744138930678504</v>
+        <v>0.07533441735242263</v>
       </c>
       <c r="E5">
         <v>0.6282245520048336</v>
@@ -545,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-1.434062033946221</v>
+        <v>-1.244212745704023</v>
       </c>
       <c r="D6">
-        <v>0.1517407682882106</v>
+        <v>0.2265147570013888</v>
       </c>
       <c r="E6">
         <v>0.5986464938111449</v>
@@ -571,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>-1.28826278674951</v>
+        <v>-1.031369333911698</v>
       </c>
       <c r="D7">
-        <v>0.1978320043439576</v>
+        <v>0.3135734621242485</v>
       </c>
       <c r="E7">
         <v>0.5986464938111449</v>
@@ -597,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>0.3930958864753901</v>
+        <v>0.3788220551707878</v>
       </c>
       <c r="D8">
-        <v>0.6942985666829453</v>
+        <v>0.7084513348688191</v>
       </c>
       <c r="E8">
         <v>0.5986464938111449</v>
@@ -623,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-0.1007992808599371</v>
+        <v>-0.1063305383308633</v>
       </c>
       <c r="D9">
-        <v>0.919721832508638</v>
+        <v>0.9162837352247604</v>
       </c>
       <c r="E9">
         <v>0.631153986383872</v>
@@ -649,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>2.146046134135317</v>
+        <v>2.023690442181398</v>
       </c>
       <c r="D10">
-        <v>0.0320122654674122</v>
+        <v>0.05531559023917265</v>
       </c>
       <c r="E10">
         <v>0.631153986383872</v>
@@ -661,7 +658,7 @@
         <v>0.5901067674793075</v>
       </c>
       <c r="G10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H10">
         <v>200</v>
@@ -675,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>1.789212722073287</v>
+        <v>1.822998486183408</v>
       </c>
       <c r="D11">
-        <v>0.07376075876219956</v>
+        <v>0.08192295687616835</v>
       </c>
       <c r="E11">
         <v>0.6334735047142168</v>
